--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,11 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2019_2020" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2020_2021" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2021_2022" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2022_2023" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2023_2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2018_2019" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2019_2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2024_2025" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,10 +434,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -468,6 +467,28 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>Ruolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mario</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Lazio</t>
         </is>
       </c>
     </row>
@@ -482,10 +503,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -514,6 +536,28 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>Ruolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giorgio</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Juventus</t>
         </is>
       </c>
     </row>
@@ -528,99 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Media_voti</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MediaFanta</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Squadra</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Ruolo</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Media_voti</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MediaFanta</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Squadra</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Ruolo</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -656,6 +608,28 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sara</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>milan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
